--- a/result/NCDC_weather_data/stations_imputed/57902099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/57902099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>6.667055083451201</v>
+      </c>
       <c r="O2" t="n">
         <v>110.66</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,7 +629,9 @@
       <c r="M3" t="n">
         <v>2.212092</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>6.667055083451201</v>
+      </c>
       <c r="O3" t="n">
         <v>116.24</v>
       </c>
@@ -635,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -693,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -751,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -809,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -867,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -925,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -983,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1041,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1099,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1157,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1215,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1273,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1331,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1389,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.02802051873198848</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
